--- a/data/trans_orig/P1432-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B97F34-0FA8-4DD8-9EB4-54B45569C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0760C4D2-F0A0-4AF7-A955-62DBC8535A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{110FA678-718F-4B3E-8403-E6D589688646}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20AAF6DD-1A7B-43C4-8DDA-83BA87540A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="284">
   <si>
     <t>Población con diagnóstico de incontinencia urinaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>3,56%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>1,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -119,13 +119,13 @@
     <t>99,29%</t>
   </si>
   <si>
-    <t>96,48%</t>
+    <t>96,44%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>97,79%</t>
+    <t>98,13%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -143,736 +143,730 @@
     <t>1,6%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>99,88%</t>
   </si>
   <si>
     <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1308,7 +1302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E437BF1F-44D3-4852-9B0B-B6B930DD971B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E96347A-34A7-49B2-8AC7-41B2CAB452AB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1901,7 +1895,7 @@
         <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -1910,7 +1904,7 @@
         <v>16652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>57</v>
@@ -1949,10 +1943,10 @@
         <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>893</v>
@@ -1961,7 +1955,7 @@
         <v>951741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>65</v>
@@ -2307,13 +2301,13 @@
         <v>9370</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -2322,13 +2316,13 @@
         <v>18063</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -2337,13 +2331,13 @@
         <v>27433</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,13 +2352,13 @@
         <v>932852</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>980</v>
@@ -2373,13 +2367,13 @@
         <v>1020549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>1963</v>
@@ -2388,13 +2382,13 @@
         <v>1953401</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2483,7 +2477,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2498,7 +2492,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2507,13 @@
         <v>35923</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -2528,13 +2522,13 @@
         <v>50689</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -2543,13 +2537,13 @@
         <v>86612</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,13 +2558,13 @@
         <v>3240621</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>3249</v>
@@ -2579,28 +2573,28 @@
         <v>3328509</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>6426</v>
       </c>
       <c r="N26" s="7">
-        <v>6569128</v>
+        <v>6569129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,7 +2636,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>24</v>
@@ -2656,7 +2650,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E401F7-F460-4DB8-B23A-AB011A06B0D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6904B9A-41DD-4F73-AC84-EB0F157FBCA3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2694,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2807,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2822,7 +2816,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2837,7 +2831,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2846,13 @@
         <v>829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2867,13 +2861,13 @@
         <v>2089</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2882,13 +2876,13 @@
         <v>2918</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,10 +2897,10 @@
         <v>114936</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -2918,10 +2912,10 @@
         <v>109816</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -2933,13 +2927,13 @@
         <v>224752</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,7 +3058,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -3073,13 +3067,13 @@
         <v>13576</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3088,13 +3082,13 @@
         <v>14688</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,10 +3103,10 @@
         <v>586592</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
@@ -3124,13 +3118,13 @@
         <v>571569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>1090</v>
@@ -3139,13 +3133,13 @@
         <v>1158161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3258,13 @@
         <v>6519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3279,13 +3273,13 @@
         <v>15489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3294,13 +3288,13 @@
         <v>22007</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3309,13 @@
         <v>1011428</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
         <v>924</v>
@@ -3330,10 +3324,10 @@
         <v>1013484</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>88</v>
@@ -3345,13 +3339,13 @@
         <v>2024913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3470,7 +3464,7 @@
         <v>6166</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>174</v>
@@ -3485,13 +3479,13 @@
         <v>11653</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3503,10 +3497,10 @@
         <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3515,13 @@
         <v>751457</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H18" s="7">
         <v>694</v>
@@ -3536,13 +3530,13 @@
         <v>764412</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="M18" s="7">
         <v>1377</v>
@@ -3551,13 +3545,13 @@
         <v>1515870</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,7 +3670,7 @@
         <v>8032</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>185</v>
@@ -3694,10 +3688,10 @@
         <v>187</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -3709,10 +3703,10 @@
         <v>177</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3721,13 @@
         <v>939707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>988</v>
@@ -3742,13 +3736,13 @@
         <v>1036816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>1891</v>
@@ -3757,13 +3751,13 @@
         <v>1976523</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,7 +3831,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3852,7 +3846,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3867,7 +3861,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3876,13 @@
         <v>22657</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -3897,13 +3891,13 @@
         <v>57892</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -3912,13 +3906,13 @@
         <v>80549</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3927,13 @@
         <v>3404122</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H26" s="7">
         <v>3242</v>
@@ -3948,28 +3942,28 @@
         <v>3496098</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M26" s="7">
         <v>6431</v>
       </c>
       <c r="N26" s="7">
-        <v>6900219</v>
+        <v>6900220</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,7 +4005,7 @@
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6980768</v>
+        <v>6980769</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>24</v>
@@ -4025,7 +4019,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4046,7 +4040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A7BF9B-57AF-48F4-B397-F36C1C4434ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0431FC2-94C8-4378-ADC2-B68B091345A4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4063,7 +4057,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4176,7 +4170,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4191,7 +4185,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4206,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4215,13 @@
         <v>794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4236,13 +4230,13 @@
         <v>1958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4251,13 +4245,13 @@
         <v>2752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,10 +4266,10 @@
         <v>115752</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -4287,10 +4281,10 @@
         <v>111402</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -4302,10 +4296,10 @@
         <v>227154</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>27</v>
@@ -4382,7 +4376,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4412,7 +4406,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4421,13 @@
         <v>4903</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4442,13 +4436,13 @@
         <v>9581</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -4457,13 +4451,13 @@
         <v>14484</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4472,13 @@
         <v>553351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>542</v>
@@ -4493,13 +4487,13 @@
         <v>549898</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>1076</v>
@@ -4508,13 +4502,13 @@
         <v>1103249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4627,13 @@
         <v>5329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4648,13 +4642,13 @@
         <v>11668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4666,10 +4660,10 @@
         <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4678,13 @@
         <v>1017102</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>967</v>
@@ -4699,13 +4693,13 @@
         <v>1031245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>106</v>
       </c>
       <c r="M14" s="7">
         <v>1912</v>
@@ -4714,13 +4708,13 @@
         <v>2048346</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4824,7 +4818,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4833,13 @@
         <v>3862</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -4854,13 +4848,13 @@
         <v>12993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4869,13 +4863,13 @@
         <v>16855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4884,13 @@
         <v>755690</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H18" s="7">
         <v>725</v>
@@ -4905,13 +4899,13 @@
         <v>772018</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="M18" s="7">
         <v>1417</v>
@@ -4920,13 +4914,13 @@
         <v>1527708</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,10 +5042,10 @@
         <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>258</v>
+        <v>116</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -5060,13 +5054,13 @@
         <v>15070</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -5075,13 +5069,13 @@
         <v>17697</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5090,13 @@
         <v>934939</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>947</v>
@@ -5111,13 +5105,13 @@
         <v>1028709</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>1876</v>
@@ -5126,13 +5120,13 @@
         <v>1963649</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,7 +5200,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5221,7 +5215,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5236,7 +5230,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5245,13 @@
         <v>17516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -5266,13 +5260,13 @@
         <v>51270</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -5281,13 +5275,13 @@
         <v>68786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5296,13 @@
         <v>3376834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H26" s="7">
         <v>3294</v>
@@ -5317,13 +5311,13 @@
         <v>3493272</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M26" s="7">
         <v>6506</v>
@@ -5332,13 +5326,13 @@
         <v>6870106</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,7 +5388,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5415,7 +5409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5B6A1-9175-41CA-8E91-8C6EEFB3EF0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F6793E-86AB-49B4-AA80-3E406450E6F3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5432,7 +5426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5542,7 +5536,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -5557,7 +5551,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -5572,7 +5566,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>24</v>
@@ -5596,7 +5590,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5611,7 +5605,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5647,7 +5641,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5662,7 +5656,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5748,7 +5742,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -5763,7 +5757,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5778,7 +5772,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -5802,7 +5796,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5832,7 +5826,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,7 +5847,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5883,7 +5877,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,7 +5963,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
@@ -5984,7 +5978,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>24</v>
@@ -6023,7 +6017,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6038,7 +6032,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,7 +6068,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6089,7 +6083,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,7 +6154,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -6175,7 +6169,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -6190,7 +6184,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -6229,7 +6223,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6280,7 +6274,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6366,7 +6360,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -6381,7 +6375,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -6396,7 +6390,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -6435,7 +6429,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6450,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +6480,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6501,7 +6495,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6566,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>24</v>
@@ -6587,7 +6581,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>24</v>
@@ -6596,13 +6590,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>24</v>
@@ -6626,7 +6620,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6641,7 +6635,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6656,7 +6650,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,7 +6671,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6692,7 +6686,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6707,7 +6701,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,7 +6743,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>24</v>
@@ -6763,7 +6757,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1432-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0760C4D2-F0A0-4AF7-A955-62DBC8535A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55223F73-FB3F-4C69-8FB4-0DBFBCF2E92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20AAF6DD-1A7B-43C4-8DDA-83BA87540A3B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{659D6A3A-730B-4073-93AA-7511D6E6E2C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="289">
   <si>
     <t>Población con diagnóstico de incontinencia urinaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No procede</t>
@@ -95,778 +95,793 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,56%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>0,12%</t>
   </si>
   <si>
     <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1302,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E96347A-34A7-49B2-8AC7-41B2CAB452AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA6F146-D0E8-4B89-8BA6-9B35E261C6B6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1895,7 +1910,7 @@
         <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -1904,13 +1919,13 @@
         <v>16652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -1919,13 +1934,13 @@
         <v>26874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1955,13 @@
         <v>951578</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>893</v>
@@ -1955,13 +1970,13 @@
         <v>951741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>1779</v>
@@ -1970,13 +1985,13 @@
         <v>1903319</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2047,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2050,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2065,7 +2080,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2080,7 +2095,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2110,13 @@
         <v>7095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2110,10 +2125,10 @@
         <v>10867</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>79</v>
@@ -2149,10 +2164,10 @@
         <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H18" s="7">
         <v>685</v>
@@ -2161,13 +2176,13 @@
         <v>672974</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="M18" s="7">
         <v>1319</v>
@@ -2176,13 +2191,13 @@
         <v>1344388</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,7 +2253,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2256,7 +2271,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2271,7 +2286,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2286,7 +2301,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,13 +2316,13 @@
         <v>9370</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -2316,13 +2331,13 @@
         <v>18063</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -2331,13 +2346,13 @@
         <v>27433</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,13 +2367,13 @@
         <v>932852</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
         <v>980</v>
@@ -2367,13 +2382,13 @@
         <v>1020549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>1963</v>
@@ -2382,13 +2397,13 @@
         <v>1953401</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,7 +2477,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2477,7 +2492,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2492,7 +2507,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,13 +2522,13 @@
         <v>35923</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -2522,13 +2537,13 @@
         <v>50689</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -2537,13 +2552,13 @@
         <v>86612</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,16 +2570,16 @@
         <v>3177</v>
       </c>
       <c r="D26" s="7">
-        <v>3240621</v>
+        <v>3240620</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H26" s="7">
         <v>3249</v>
@@ -2573,13 +2588,13 @@
         <v>3328509</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>6426</v>
@@ -2588,13 +2603,13 @@
         <v>6569129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,7 +2621,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>24</v>
@@ -2650,7 +2665,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2671,7 +2686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6904B9A-41DD-4F73-AC84-EB0F157FBCA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891E684C-427E-4656-8931-E20B7379BE7E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2688,7 +2703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2801,7 +2816,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2816,7 +2831,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2831,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2861,13 @@
         <v>829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2861,13 +2876,13 @@
         <v>2089</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2876,13 +2891,13 @@
         <v>2918</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,10 +2912,10 @@
         <v>114936</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -2912,10 +2927,10 @@
         <v>109816</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -2927,13 +2942,13 @@
         <v>224752</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3067,13 @@
         <v>1112</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -3067,13 +3082,13 @@
         <v>13576</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3082,13 +3097,13 @@
         <v>14688</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,10 +3118,10 @@
         <v>586592</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
@@ -3118,13 +3133,13 @@
         <v>571569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>1090</v>
@@ -3133,13 +3148,13 @@
         <v>1158161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,7 +3258,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3273,13 @@
         <v>6519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3273,13 +3288,13 @@
         <v>15489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3288,13 +3303,13 @@
         <v>22007</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3324,13 @@
         <v>1011428</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>924</v>
@@ -3324,13 +3339,13 @@
         <v>1013484</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
         <v>1855</v>
@@ -3339,13 +3354,13 @@
         <v>2024913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,7 +3416,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3419,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3434,7 +3449,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3449,7 +3464,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,10 +3482,10 @@
         <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -3479,13 +3494,13 @@
         <v>11653</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3494,13 +3509,13 @@
         <v>17819</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,10 +3533,10 @@
         <v>44</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H18" s="7">
         <v>694</v>
@@ -3530,13 +3545,13 @@
         <v>764412</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M18" s="7">
         <v>1377</v>
@@ -3545,13 +3560,13 @@
         <v>1515870</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,7 +3622,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3640,7 +3655,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3655,7 +3670,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3685,13 @@
         <v>8032</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3685,13 +3700,13 @@
         <v>15085</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -3700,13 +3715,13 @@
         <v>23117</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3736,13 @@
         <v>939707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>988</v>
@@ -3736,13 +3751,13 @@
         <v>1036816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="M22" s="7">
         <v>1891</v>
@@ -3751,13 +3766,13 @@
         <v>1976523</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,7 +3846,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3846,7 +3861,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3861,7 +3876,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3891,13 @@
         <v>22657</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -3891,13 +3906,13 @@
         <v>57892</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -3906,13 +3921,13 @@
         <v>80549</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3942,13 @@
         <v>3404122</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H26" s="7">
         <v>3242</v>
@@ -3942,28 +3957,28 @@
         <v>3496098</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>6431</v>
       </c>
       <c r="N26" s="7">
-        <v>6900220</v>
+        <v>6900219</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +4020,7 @@
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6980769</v>
+        <v>6980768</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>24</v>
@@ -4019,7 +4034,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4040,7 +4055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0431FC2-94C8-4378-ADC2-B68B091345A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72905A8-4886-453E-ADF6-6E30E3F6A6EF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4057,7 +4072,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4170,7 +4185,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4185,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4200,7 +4215,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4230,13 @@
         <v>794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4236,7 +4251,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4245,13 +4260,13 @@
         <v>2752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,10 +4281,10 @@
         <v>115752</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -4284,7 +4299,7 @@
         <v>46</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -4296,13 +4311,13 @@
         <v>227154</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4391,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4406,7 +4421,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4436,13 @@
         <v>4903</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4436,13 +4451,13 @@
         <v>9581</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -4451,13 +4466,13 @@
         <v>14484</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4487,13 @@
         <v>553351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>542</v>
@@ -4487,13 +4502,13 @@
         <v>549898</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>1076</v>
@@ -4502,13 +4517,13 @@
         <v>1103249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,7 +4627,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4642,13 @@
         <v>5329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4642,13 +4657,13 @@
         <v>11668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4660,10 +4675,10 @@
         <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4693,13 @@
         <v>1017102</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>967</v>
@@ -4693,13 +4708,13 @@
         <v>1031245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>1912</v>
@@ -4708,13 +4723,13 @@
         <v>2048346</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,7 +4785,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4788,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4803,7 +4818,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4818,7 +4833,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4848,13 @@
         <v>3862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -4848,13 +4863,13 @@
         <v>12993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4863,13 +4878,13 @@
         <v>16855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4899,13 @@
         <v>755690</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H18" s="7">
         <v>725</v>
@@ -4899,13 +4914,13 @@
         <v>772018</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>253</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="M18" s="7">
         <v>1417</v>
@@ -4914,13 +4929,13 @@
         <v>1527708</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,7 +4991,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5024,7 +5039,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5054,13 @@
         <v>2628</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -5054,13 +5069,13 @@
         <v>15070</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>116</v>
+        <v>258</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -5069,13 +5084,13 @@
         <v>17697</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5105,13 @@
         <v>934939</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H22" s="7">
         <v>947</v>
@@ -5105,13 +5120,13 @@
         <v>1028709</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
         <v>1876</v>
@@ -5120,13 +5135,13 @@
         <v>1963649</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,7 +5215,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5215,7 +5230,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5230,7 +5245,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5260,13 @@
         <v>17516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -5260,13 +5275,13 @@
         <v>51270</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -5275,13 +5290,13 @@
         <v>68786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5311,13 @@
         <v>3376834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H26" s="7">
         <v>3294</v>
@@ -5311,10 +5326,10 @@
         <v>3493272</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>83</v>
@@ -5326,13 +5341,13 @@
         <v>6870106</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,7 +5403,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5409,7 +5424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F6793E-86AB-49B4-AA80-3E406450E6F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAC73AC-3352-47C7-8A3B-638F4F412988}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5426,7 +5441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5536,7 +5551,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -5551,7 +5566,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -5566,7 +5581,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>24</v>
@@ -5590,7 +5605,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5605,7 +5620,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5641,7 +5656,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5656,7 +5671,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5742,7 +5757,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -5757,7 +5772,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5772,7 +5787,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -5796,7 +5811,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5811,7 +5826,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5826,7 +5841,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,7 +5862,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5862,7 +5877,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5877,7 +5892,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,7 +5978,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
@@ -5978,7 +5993,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>24</v>
@@ -6017,7 +6032,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6032,7 +6047,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,7 +6083,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6083,7 +6098,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,7 +6154,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6154,7 +6169,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -6169,7 +6184,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -6184,7 +6199,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -6208,7 +6223,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6223,7 +6238,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6259,7 +6274,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6274,7 +6289,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6345,7 +6360,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6360,7 +6375,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -6375,7 +6390,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -6390,7 +6405,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -6414,7 +6429,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6429,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6444,7 +6459,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,7 +6480,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6480,7 +6495,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6495,7 +6510,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6581,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>24</v>
@@ -6581,7 +6596,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>24</v>
@@ -6596,7 +6611,7 @@
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>24</v>
@@ -6620,7 +6635,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6635,7 +6650,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6650,7 +6665,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,7 +6686,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6686,7 +6701,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6701,7 +6716,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,7 +6772,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1432-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6883115-EC20-4382-938A-2FA6BD524FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3AF2E36-041E-4BFB-8CAA-AF5540F8C89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AFC89C8A-AE58-4CE7-9F69-AE8B26F4CEB4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{92355786-7041-4F56-94BE-53EBB435F469}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="225">
   <si>
     <t>Población con diagnóstico de incontinencia urinaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,628 +67,550 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>99,23%</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -757,37 +679,19 @@
     <t>98,91%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>2,57%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
     <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
   </si>
   <si>
     <t>98,6%</t>
@@ -1220,8 +1124,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F38E84-99E2-40D4-AD61-3A395F2D81D7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2180A7C4-B2A8-4464-801A-02CA2FAFC616}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1338,10 +1242,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>9236</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1353,85 +1257,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>795</v>
+        <v>5107</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>795</v>
+        <v>14343</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>674</v>
       </c>
       <c r="D5" s="7">
-        <v>115358</v>
+        <v>684776</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>127</v>
+        <v>691</v>
       </c>
       <c r="I5" s="7">
-        <v>111960</v>
+        <v>683244</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>232</v>
+        <v>1365</v>
       </c>
       <c r="N5" s="7">
-        <v>227318</v>
+        <v>1368020</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1440,153 +1344,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>9236</v>
+        <v>10222</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>4312</v>
+        <v>16652</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N7" s="7">
-        <v>13548</v>
+        <v>26874</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>569</v>
+        <v>886</v>
       </c>
       <c r="D8" s="7">
-        <v>569418</v>
+        <v>951578</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>564</v>
+        <v>893</v>
       </c>
       <c r="I8" s="7">
-        <v>571284</v>
+        <v>951741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1133</v>
+        <v>1779</v>
       </c>
       <c r="N8" s="7">
-        <v>1140702</v>
+        <v>1903319</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1595,153 +1499,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>10222</v>
+        <v>7095</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>16652</v>
+        <v>10867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>26874</v>
+        <v>17962</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>886</v>
+        <v>634</v>
       </c>
       <c r="D11" s="7">
-        <v>951578</v>
+        <v>671414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>893</v>
+        <v>685</v>
       </c>
       <c r="I11" s="7">
-        <v>951741</v>
+        <v>672974</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1779</v>
+        <v>1319</v>
       </c>
       <c r="N11" s="7">
-        <v>1903319</v>
+        <v>1344388</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,129 +1654,129 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>7095</v>
+        <v>9370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>10867</v>
+        <v>18063</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>17962</v>
+        <v>27433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>634</v>
+        <v>983</v>
       </c>
       <c r="D14" s="7">
-        <v>671414</v>
+        <v>932852</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
-        <v>685</v>
+        <v>980</v>
       </c>
       <c r="I14" s="7">
-        <v>672974</v>
+        <v>1020549</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>75</v>
@@ -1884,10 +1788,10 @@
         <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>1319</v>
+        <v>1963</v>
       </c>
       <c r="N14" s="7">
-        <v>1344388</v>
+        <v>1953401</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>78</v>
@@ -1896,7 +1800,7 @@
         <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,78 +1809,78 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>9370</v>
+        <v>35923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I16" s="7">
-        <v>18063</v>
+        <v>50689</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>83</v>
@@ -1988,70 +1892,70 @@
         <v>85</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="N16" s="7">
-        <v>27433</v>
+        <v>86612</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>983</v>
+        <v>3177</v>
       </c>
       <c r="D17" s="7">
-        <v>932852</v>
+        <v>3240620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>980</v>
+        <v>3249</v>
       </c>
       <c r="I17" s="7">
-        <v>1020549</v>
+        <v>3328508</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>1963</v>
+        <v>6426</v>
       </c>
       <c r="N17" s="7">
-        <v>1953401</v>
+        <v>6569129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,217 +1964,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>37</v>
-      </c>
-      <c r="D19" s="7">
-        <v>35923</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="7">
-        <v>48</v>
-      </c>
-      <c r="I19" s="7">
-        <v>50689</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="A19" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="7">
-        <v>85</v>
-      </c>
-      <c r="N19" s="7">
-        <v>86612</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3177</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3240621</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3249</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3328509</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6426</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6569128</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2283,8 +2031,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7C56E9-2180-4E14-96FE-3BE246874666}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90433143-E32C-4226-A99E-C8840132214B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2300,7 +2048,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2401,100 +2149,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>829</v>
+        <v>1941</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>2089</v>
+        <v>15665</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>2918</v>
+        <v>17606</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>121</v>
+        <v>672</v>
       </c>
       <c r="D5" s="7">
-        <v>114936</v>
+        <v>701528</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
-        <v>97</v>
+        <v>636</v>
       </c>
       <c r="I5" s="7">
-        <v>109816</v>
+        <v>681385</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
-        <v>218</v>
+        <v>1308</v>
       </c>
       <c r="N5" s="7">
-        <v>224752</v>
+        <v>1382913</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,153 +2251,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>1112</v>
+        <v>6519</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>13576</v>
+        <v>15489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>14688</v>
+        <v>22007</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>551</v>
+        <v>931</v>
       </c>
       <c r="D8" s="7">
-        <v>586592</v>
+        <v>1011428</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
-        <v>539</v>
+        <v>924</v>
       </c>
       <c r="I8" s="7">
-        <v>571569</v>
+        <v>1013484</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="M8" s="7">
-        <v>1090</v>
+        <v>1855</v>
       </c>
       <c r="N8" s="7">
-        <v>1158161</v>
+        <v>2024914</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,153 +2406,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>6519</v>
+        <v>6166</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11653</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="7">
+        <v>16</v>
+      </c>
+      <c r="N10" s="7">
+        <v>17819</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="7">
-        <v>14</v>
-      </c>
-      <c r="I10" s="7">
-        <v>15489</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M10" s="7">
-        <v>19</v>
-      </c>
-      <c r="N10" s="7">
-        <v>22007</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>931</v>
+        <v>683</v>
       </c>
       <c r="D11" s="7">
-        <v>1011428</v>
+        <v>751457</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H11" s="7">
-        <v>924</v>
+        <v>694</v>
       </c>
       <c r="I11" s="7">
-        <v>1013484</v>
+        <v>764412</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M11" s="7">
-        <v>1855</v>
+        <v>1377</v>
       </c>
       <c r="N11" s="7">
-        <v>2024913</v>
+        <v>1515870</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,153 +2561,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>776065</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1533689</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>6166</v>
+        <v>8032</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>11653</v>
+        <v>15085</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>17819</v>
+        <v>23117</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>683</v>
+        <v>903</v>
       </c>
       <c r="D14" s="7">
-        <v>751457</v>
+        <v>939707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
-        <v>694</v>
+        <v>988</v>
       </c>
       <c r="I14" s="7">
-        <v>764412</v>
+        <v>1036816</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
-        <v>1377</v>
+        <v>1891</v>
       </c>
       <c r="N14" s="7">
-        <v>1515870</v>
+        <v>1976523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,153 +2716,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>776065</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1533689</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>8032</v>
+        <v>22657</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="7">
+        <v>53</v>
+      </c>
+      <c r="I16" s="7">
+        <v>57892</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" s="7">
+        <v>73</v>
+      </c>
+      <c r="N16" s="7">
+        <v>80549</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>15085</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M16" s="7">
-        <v>22</v>
-      </c>
-      <c r="N16" s="7">
-        <v>23117</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>903</v>
+        <v>3189</v>
       </c>
       <c r="D17" s="7">
-        <v>939707</v>
+        <v>3404122</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3242</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3496098</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6431</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6900220</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="H17" s="7">
-        <v>988</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1036816</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1891</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1976523</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,217 +2871,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3553990</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6980769</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7">
-        <v>22657</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="7">
-        <v>53</v>
-      </c>
-      <c r="I19" s="7">
-        <v>57892</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M19" s="7">
-        <v>73</v>
-      </c>
-      <c r="N19" s="7">
-        <v>80549</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3189</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3404122</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3242</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3496098</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6431</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6900219</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3553990</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980768</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3346,8 +2938,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42B394E-1495-4979-8112-3291BBF996C3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC41AC48-8CBA-46C6-A3C5-DEE56F545EC2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3363,7 +2955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3464,100 +3056,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>794</v>
+        <v>5697</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="7">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
       <c r="I4" s="7">
-        <v>1958</v>
+        <v>11539</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>2752</v>
+        <v>17236</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>646</v>
       </c>
       <c r="D5" s="7">
-        <v>115752</v>
+        <v>669103</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
-        <v>113</v>
+        <v>655</v>
       </c>
       <c r="I5" s="7">
-        <v>111402</v>
+        <v>661300</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
-        <v>225</v>
+        <v>1301</v>
       </c>
       <c r="N5" s="7">
-        <v>227154</v>
+        <v>1330403</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,153 +3158,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>4903</v>
+        <v>5329</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>9581</v>
+        <v>11668</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>14484</v>
+        <v>16998</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>534</v>
+        <v>945</v>
       </c>
       <c r="D8" s="7">
-        <v>553351</v>
+        <v>1017102</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
-        <v>542</v>
+        <v>967</v>
       </c>
       <c r="I8" s="7">
-        <v>549898</v>
+        <v>1031245</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7">
-        <v>1076</v>
+        <v>1912</v>
       </c>
       <c r="N8" s="7">
-        <v>1103249</v>
+        <v>2048346</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,153 +3313,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>5329</v>
+        <v>3862</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>11668</v>
+        <v>12993</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>16998</v>
+        <v>16855</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>945</v>
+        <v>692</v>
       </c>
       <c r="D11" s="7">
-        <v>1017102</v>
+        <v>755690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
-        <v>967</v>
+        <v>725</v>
       </c>
       <c r="I11" s="7">
-        <v>1031245</v>
+        <v>772018</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
-        <v>1912</v>
+        <v>1417</v>
       </c>
       <c r="N11" s="7">
-        <v>2048346</v>
+        <v>1527708</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,153 +3468,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3862</v>
+        <v>2628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>12993</v>
+        <v>15070</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>16855</v>
+        <v>17697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>692</v>
+        <v>929</v>
       </c>
       <c r="D14" s="7">
-        <v>755690</v>
+        <v>934939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
-        <v>725</v>
+        <v>947</v>
       </c>
       <c r="I14" s="7">
-        <v>772018</v>
+        <v>1028709</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
-        <v>1417</v>
+        <v>1876</v>
       </c>
       <c r="N14" s="7">
-        <v>1527708</v>
+        <v>1963649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,153 +3623,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>2628</v>
+        <v>17516</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7">
-        <v>15070</v>
+        <v>51270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="N16" s="7">
-        <v>17697</v>
+        <v>68786</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>929</v>
+        <v>3212</v>
       </c>
       <c r="D17" s="7">
-        <v>934939</v>
+        <v>3376834</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
-        <v>947</v>
+        <v>3294</v>
       </c>
       <c r="I17" s="7">
-        <v>1028709</v>
+        <v>3493272</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="M17" s="7">
-        <v>1876</v>
+        <v>6506</v>
       </c>
       <c r="N17" s="7">
-        <v>1963649</v>
+        <v>6870106</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,217 +3778,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>19</v>
-      </c>
-      <c r="D19" s="7">
-        <v>17516</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H19" s="7">
-        <v>44</v>
-      </c>
-      <c r="I19" s="7">
-        <v>51270</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M19" s="7">
-        <v>63</v>
-      </c>
-      <c r="N19" s="7">
-        <v>68786</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3212</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3376834</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3294</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3493272</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6506</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6870106</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
